--- a/КопияРейтинг.xlsx
+++ b/КопияРейтинг.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserProfiles\pr12prohorov.OAT\Desktop\git_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F9763-EBEC-405B-870D-777BCA472AC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DD3745-8FAB-450A-AAFD-2636478F8A37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1080" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="1080" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение Ролей" sheetId="1" r:id="rId1"/>
@@ -795,68 +795,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1141,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB054EB1-DE61-48CB-A160-0E840F94C207}">
   <dimension ref="B3:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="C24:D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1360,13 +1360,13 @@
         <v>135</v>
       </c>
       <c r="C5" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E5" s="11">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>136</v>
       </c>
       <c r="C6" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="11">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E6" s="11">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>137</v>
       </c>
       <c r="C7" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="11">
         <v>0</v>
@@ -1489,13 +1489,13 @@
         <v>135</v>
       </c>
       <c r="C13" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         <v>136</v>
       </c>
       <c r="C14" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>137</v>
       </c>
       <c r="C15" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,84 +1605,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="38" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -1701,8 +1701,8 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="20" t="s">
         <v>18</v>
       </c>
@@ -1719,8 +1719,8 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1737,8 +1737,8 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1757,8 +1757,8 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="20" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -1815,8 +1815,8 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="20" t="s">
         <v>27</v>
       </c>
@@ -1833,8 +1833,8 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="20" t="s">
         <v>29</v>
       </c>
@@ -1851,10 +1851,10 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="33" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -1875,8 +1875,8 @@
       <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="19" t="s">
         <v>33</v>
       </c>
@@ -1895,8 +1895,8 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="19" t="s">
         <v>34</v>
       </c>
@@ -1915,8 +1915,8 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="19" t="s">
         <v>35</v>
       </c>
@@ -1935,8 +1935,8 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="19" t="s">
         <v>36</v>
       </c>
@@ -1955,8 +1955,8 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -1977,8 +1977,8 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="20" t="s">
         <v>38</v>
       </c>
@@ -1997,8 +1997,8 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="20" t="s">
         <v>39</v>
       </c>
@@ -2017,8 +2017,8 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="20" t="s">
         <v>40</v>
       </c>
@@ -2037,8 +2037,8 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="20" t="s">
         <v>41</v>
       </c>
@@ -2057,8 +2057,8 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2079,8 +2079,8 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="20" t="s">
         <v>43</v>
       </c>
@@ -2097,8 +2097,8 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="20" t="s">
         <v>44</v>
       </c>
@@ -2115,8 +2115,8 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="20" t="s">
         <v>45</v>
       </c>
@@ -2135,8 +2135,8 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="29" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -2155,8 +2155,8 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="20" t="s">
         <v>48</v>
       </c>
@@ -2173,8 +2173,8 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="20" t="s">
         <v>49</v>
       </c>
@@ -2191,8 +2191,8 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="20" t="s">
         <v>134</v>
       </c>
@@ -2209,10 +2209,10 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="19" t="s">
@@ -2233,8 +2233,8 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="19" t="s">
         <v>53</v>
       </c>
@@ -2251,8 +2251,8 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="19" t="s">
         <v>54</v>
       </c>
@@ -2269,8 +2269,8 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="35"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="19" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2287,8 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="19" t="s">
         <v>56</v>
       </c>
@@ -2305,8 +2305,8 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="20" t="s">
         <v>57</v>
       </c>
@@ -2325,8 +2325,8 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="20" t="s">
         <v>58</v>
       </c>
@@ -2343,8 +2343,8 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="31" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="19" t="s">
@@ -2357,16 +2357,16 @@
       <c r="G41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="20">
-        <v>2</v>
-      </c>
+      <c r="H41" s="20"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="20">
+        <v>2</v>
+      </c>
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="20" t="s">
         <v>61</v>
       </c>
@@ -2377,16 +2377,16 @@
       <c r="G42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="20">
-        <v>1</v>
-      </c>
+      <c r="H42" s="20"/>
       <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="J42" s="20">
+        <v>1</v>
+      </c>
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="35"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="20" t="s">
         <v>62</v>
       </c>
@@ -2397,16 +2397,16 @@
       <c r="G43" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="20">
-        <v>2</v>
-      </c>
+      <c r="H43" s="20"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="J43" s="20">
+        <v>2</v>
+      </c>
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="33" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -2425,8 +2425,8 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="35"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="20" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2443,8 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="20" t="s">
         <v>66</v>
       </c>
@@ -2461,8 +2461,8 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="35"/>
-      <c r="C47" s="29"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="20" t="s">
         <v>92</v>
       </c>
@@ -2481,8 +2481,8 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="29"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="20" t="s">
         <v>67</v>
       </c>
@@ -2501,8 +2501,8 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="35"/>
-      <c r="C49" s="29"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="20" t="s">
         <v>68</v>
       </c>
@@ -2521,8 +2521,8 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
-      <c r="C50" s="31" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -2543,8 +2543,8 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="35"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="20" t="s">
         <v>82</v>
       </c>
@@ -2561,8 +2561,8 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="35"/>
-      <c r="C52" s="32"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="20" t="s">
         <v>133</v>
       </c>
@@ -2579,8 +2579,8 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="35"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="20" t="s">
         <v>83</v>
       </c>
@@ -2597,8 +2597,8 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="35"/>
-      <c r="C54" s="32"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="20" t="s">
         <v>84</v>
       </c>
@@ -2615,8 +2615,8 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="20" t="s">
         <v>85</v>
       </c>
@@ -2633,8 +2633,8 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="35"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="20" t="s">
         <v>86</v>
       </c>
@@ -2651,8 +2651,8 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="20" t="s">
         <v>93</v>
       </c>
@@ -2693,10 +2693,10 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="38" t="s">
         <v>73</v>
       </c>
       <c r="D59" s="20" t="s">
@@ -2715,8 +2715,8 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="35"/>
-      <c r="C60" s="32"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="20" t="s">
         <v>75</v>
       </c>
@@ -2733,8 +2733,8 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="35"/>
-      <c r="C61" s="33"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="20" t="s">
         <v>76</v>
       </c>
@@ -2751,8 +2751,8 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="31" t="s">
+      <c r="B62" s="36"/>
+      <c r="C62" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -2771,8 +2771,8 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="35"/>
-      <c r="C63" s="33"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="20" t="s">
         <v>79</v>
       </c>
@@ -2789,10 +2789,10 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="38" t="s">
         <v>122</v>
       </c>
       <c r="D64" s="20" t="s">
@@ -2817,8 +2817,8 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="35"/>
-      <c r="C65" s="32"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="20" t="s">
         <v>124</v>
       </c>
@@ -2841,8 +2841,8 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="35"/>
-      <c r="C66" s="32"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="20" t="s">
         <v>125</v>
       </c>
@@ -2865,8 +2865,8 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="36"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="40"/>
       <c r="D67" s="20" t="s">
         <v>126</v>
       </c>
@@ -2889,11 +2889,11 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="19">
         <f>SUM(E7:E67)</f>
         <v>70</v>
@@ -2902,7 +2902,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19">
         <f>SUM(H7:H67)</f>
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="I68" s="19">
         <f>SUM(I7:I67)</f>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="J68" s="19">
         <f>SUM(J7:J67)</f>
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="K68" s="19">
         <f>SUM(K7:K67)</f>
@@ -2919,21 +2919,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B34:B57"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B7:B15"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D4:D6"/>
@@ -2950,6 +2935,21 @@
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B34:B57"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B7:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2960,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9373F6A1-6D29-4CEC-8E2B-884FFFED7687}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2983,23 +2983,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="4" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -3008,7 +3008,7 @@
       <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="42" t="s">
@@ -3029,10 +3029,10 @@
       <c r="M4" s="42"/>
     </row>
     <row r="5" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="5" t="s">
         <v>102</v>
       </c>
@@ -3059,10 +3059,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3093,8 +3093,8 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
@@ -3123,8 +3123,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3155,8 +3155,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
@@ -3185,8 +3185,8 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3215,10 +3215,10 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3237,8 +3237,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
@@ -3255,8 +3255,8 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
@@ -3273,8 +3273,8 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="1" t="s">
         <v>107</v>
       </c>
@@ -3291,8 +3291,8 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
@@ -3309,8 +3309,8 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
@@ -3327,10 +3327,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3353,8 +3353,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="2" t="s">
         <v>109</v>
       </c>
@@ -3375,8 +3375,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -3397,8 +3397,8 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3419,8 +3419,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -3441,8 +3441,8 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="47" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3461,8 +3461,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="1" t="s">
         <v>112</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3505,8 +3505,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="47" t="s">
         <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3529,8 +3529,8 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="1" t="s">
         <v>116</v>
       </c>
@@ -3551,8 +3551,8 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47" t="s">
         <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3571,8 +3571,8 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="1" t="s">
         <v>119</v>
       </c>
@@ -3620,6 +3620,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B17:B23"/>
@@ -3636,11 +3641,6 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/КопияРейтинг.xlsx
+++ b/КопияРейтинг.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserProfiles\pr12prohorov.OAT\Desktop\git_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DD3745-8FAB-450A-AAFD-2636478F8A37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D149D-1DFF-4B2F-9133-13ACFAB1E56A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1080" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="1080" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение Ролей" sheetId="1" r:id="rId1"/>
     <sheet name="Итоговый Рейтинг" sheetId="3" r:id="rId2"/>
-    <sheet name="Рейтинг участников команды" sheetId="2" r:id="rId3"/>
-    <sheet name="КТУ Группы" sheetId="4" r:id="rId4"/>
+    <sheet name="КТУ Группы" sheetId="4" r:id="rId3"/>
+    <sheet name="Рейтинг участников команды" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
   <si>
     <t>ФИО</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>Моб.Разр</t>
+  </si>
+  <si>
+    <t>Моб.разр</t>
+  </si>
+  <si>
+    <t>Менеджер/тех.пис</t>
   </si>
 </sst>
 </file>
@@ -795,6 +801,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,36 +843,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,9 +863,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,7 +1148,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1200,7 +1206,7 @@
         <v>142</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>94</v>
@@ -1226,7 +1232,9 @@
       <c r="E4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="K4" s="16" t="s">
@@ -1247,7 +1255,9 @@
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="K5" s="16" t="s">
@@ -1268,7 +1278,9 @@
       <c r="E6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="K6" s="16" t="s">
@@ -1310,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB054EB1-DE61-48CB-A160-0E840F94C207}">
   <dimension ref="B3:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1360,16 +1372,16 @@
         <v>135</v>
       </c>
       <c r="C5" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="11">
         <v>6.5</v>
       </c>
       <c r="E5" s="11">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -1389,10 +1401,10 @@
         <v>4.5</v>
       </c>
       <c r="E6" s="11">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -1406,16 +1418,16 @@
         <v>137</v>
       </c>
       <c r="C7" s="11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -1498,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
@@ -1521,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -1544,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -1587,1381 +1599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="8.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15" style="17" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="17" customWidth="1"/>
-    <col min="5" max="11" width="5.7109375" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="20">
-        <v>2</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="20">
-        <v>1</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="20">
-        <v>2</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="20">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="20">
-        <v>2</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20">
-        <v>2</v>
-      </c>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="20">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20">
-        <v>1</v>
-      </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="20">
-        <v>1</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20">
-        <v>1</v>
-      </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20">
-        <v>1</v>
-      </c>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="20">
-        <v>2</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="20">
-        <v>2</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="20">
-        <v>1</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="20">
-        <v>1</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="20">
-        <v>1</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="20">
-        <v>1</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="20">
-        <v>2</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20">
-        <v>2</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="20">
-        <v>1</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="20">
-        <v>1</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="41"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="20">
-        <v>1</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="20">
-        <v>1</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="20">
-        <v>1</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20">
-        <v>1</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-    </row>
-    <row r="35" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="20">
-        <v>1</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-    </row>
-    <row r="36" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="20">
-        <v>1</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="20">
-        <v>1</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="20">
-        <v>1</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="36"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="20">
-        <v>1</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20">
-        <v>1</v>
-      </c>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="36"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="20">
-        <v>1</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
-      <c r="C41" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="20">
-        <v>2</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20">
-        <v>2</v>
-      </c>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="20">
-        <v>1</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20">
-        <v>1</v>
-      </c>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="20">
-        <v>2</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20">
-        <v>2</v>
-      </c>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="36"/>
-      <c r="C44" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="20">
-        <v>1</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="20">
-        <v>1</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="36"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="20">
-        <v>1</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="36"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="20">
-        <v>1</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="19">
-        <v>1</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="36"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="20">
-        <v>1</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="20">
-        <v>1</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="36"/>
-      <c r="C50" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="36"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="36"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="36"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="20">
-        <v>2</v>
-      </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="36"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="20">
-        <v>2</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="20">
-        <v>1</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="37"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="20">
-        <v>2</v>
-      </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="20">
-        <v>1</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20">
-        <v>1</v>
-      </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-    </row>
-    <row r="59" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="20">
-        <v>1</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-    </row>
-    <row r="60" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="36"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="20">
-        <v>1</v>
-      </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-    </row>
-    <row r="61" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="36"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="20">
-        <v>1</v>
-      </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-    </row>
-    <row r="62" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="36"/>
-      <c r="C62" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="20">
-        <v>1</v>
-      </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-    </row>
-    <row r="63" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="36"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="20">
-        <v>1</v>
-      </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="20">
-        <v>1</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="20">
-        <v>1</v>
-      </c>
-      <c r="I64" s="20">
-        <v>1</v>
-      </c>
-      <c r="J64" s="20">
-        <v>1</v>
-      </c>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="36"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="20">
-        <v>1</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="20">
-        <v>1</v>
-      </c>
-      <c r="I65" s="20">
-        <v>1</v>
-      </c>
-      <c r="J65" s="20">
-        <v>1</v>
-      </c>
-      <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="36"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="20">
-        <v>1</v>
-      </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="20">
-        <v>1</v>
-      </c>
-      <c r="I66" s="20">
-        <v>1</v>
-      </c>
-      <c r="J66" s="20">
-        <v>1</v>
-      </c>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="37"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="20">
-        <v>2</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="20">
-        <v>1</v>
-      </c>
-      <c r="I67" s="20">
-        <v>1</v>
-      </c>
-      <c r="J67" s="20">
-        <v>1</v>
-      </c>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="19">
-        <f>SUM(E7:E67)</f>
-        <v>70</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19">
-        <f>SUM(H7:H67)</f>
-        <v>13.5</v>
-      </c>
-      <c r="I68" s="19">
-        <f>SUM(I7:I67)</f>
-        <v>8</v>
-      </c>
-      <c r="J68" s="19">
-        <f>SUM(J7:J67)</f>
-        <v>16.5</v>
-      </c>
-      <c r="K68" s="19">
-        <f>SUM(K7:K67)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B16:B33"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B34:B57"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B7:B15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9373F6A1-6D29-4CEC-8E2B-884FFFED7687}">
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2983,23 +1625,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -3008,7 +1650,7 @@
       <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="42" t="s">
@@ -3029,10 +1671,10 @@
       <c r="M4" s="42"/>
     </row>
     <row r="5" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
-      <c r="E5" s="48"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="5" t="s">
         <v>102</v>
       </c>
@@ -3059,10 +1701,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3093,8 +1735,8 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
@@ -3123,8 +1765,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3155,8 +1797,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
@@ -3185,8 +1827,8 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3215,10 +1857,10 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3237,8 +1879,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
@@ -3255,8 +1897,8 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
@@ -3273,8 +1915,8 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="1" t="s">
         <v>107</v>
       </c>
@@ -3291,8 +1933,8 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
@@ -3309,8 +1951,8 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
@@ -3327,10 +1969,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3353,8 +1995,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="2" t="s">
         <v>109</v>
       </c>
@@ -3375,8 +2017,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -3397,8 +2039,8 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3419,8 +2061,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -3441,8 +2083,8 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3461,8 +2103,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="1" t="s">
         <v>112</v>
       </c>
@@ -3479,7 +2121,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3505,8 +2147,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48" t="s">
         <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3529,8 +2171,8 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="1" t="s">
         <v>116</v>
       </c>
@@ -3551,8 +2193,8 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="48" t="s">
         <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3571,8 +2213,8 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="1" t="s">
         <v>119</v>
       </c>
@@ -3620,11 +2262,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B17:B23"/>
@@ -3641,7 +2278,1406 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:K68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="8.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15" style="17" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="17" customWidth="1"/>
+    <col min="5" max="11" width="5.7109375" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="35"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="B10" s="35"/>
+      <c r="C10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20">
+        <v>1</v>
+      </c>
+      <c r="I13" s="20">
+        <v>1</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="20">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+      <c r="J14" s="20">
+        <v>1</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1</v>
+      </c>
+      <c r="J15" s="20">
+        <v>1</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <v>2</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
+        <v>1</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="20">
+        <v>1</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
+        <v>1</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20">
+        <v>1</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
+      <c r="C21" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="20">
+        <v>2</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="20">
+        <v>2</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20">
+        <v>2</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20">
+        <v>1</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="35"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="20">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="35"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="35"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="20">
+        <v>1</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="35"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="35"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20">
+        <v>1</v>
+      </c>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="35"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="20">
+        <v>1</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
+      <c r="C41" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="20">
+        <v>2</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20">
+        <v>2</v>
+      </c>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="35"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="20">
+        <v>1</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20">
+        <v>1</v>
+      </c>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="35"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="20">
+        <v>2</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20">
+        <v>2</v>
+      </c>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="35"/>
+      <c r="C44" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="20">
+        <v>1</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="35"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="20">
+        <v>1</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="35"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="20">
+        <v>1</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="35"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="20">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="35"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="35"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="20">
+        <v>1</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="20">
+        <v>1</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="35"/>
+      <c r="C50" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="35"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="35"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B53" s="35"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="35"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="20">
+        <v>2</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="35"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="20">
+        <v>2</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="35"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="20">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="36"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="20">
+        <v>2</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B58" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="20">
+        <v>1</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20">
+        <v>1</v>
+      </c>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="20">
+        <v>1</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B60" s="35"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="20">
+        <v>1</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B61" s="35"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="20">
+        <v>1</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="35"/>
+      <c r="C62" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="20">
+        <v>1</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+    </row>
+    <row r="63" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="35"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="20">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="20">
+        <v>1</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="20">
+        <v>1</v>
+      </c>
+      <c r="I64" s="20">
+        <v>1</v>
+      </c>
+      <c r="J64" s="20">
+        <v>1</v>
+      </c>
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="35"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="20">
+        <v>1</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="20">
+        <v>1</v>
+      </c>
+      <c r="I65" s="20">
+        <v>1</v>
+      </c>
+      <c r="J65" s="20">
+        <v>1</v>
+      </c>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="35"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="20">
+        <v>1</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="20">
+        <v>1</v>
+      </c>
+      <c r="I66" s="20">
+        <v>1</v>
+      </c>
+      <c r="J66" s="20">
+        <v>1</v>
+      </c>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="36"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="20">
+        <v>2</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="20">
+        <v>1</v>
+      </c>
+      <c r="I67" s="20">
+        <v>1</v>
+      </c>
+      <c r="J67" s="20">
+        <v>1</v>
+      </c>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="19">
+        <f>SUM(E7:E67)</f>
+        <v>70</v>
+      </c>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19">
+        <f>SUM(H7:H67)</f>
+        <v>17.5</v>
+      </c>
+      <c r="I68" s="19">
+        <f>SUM(I7:I67)</f>
+        <v>12</v>
+      </c>
+      <c r="J68" s="19">
+        <f>SUM(J7:J67)</f>
+        <v>20.5</v>
+      </c>
+      <c r="K68" s="19">
+        <f>SUM(K7:K67)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B34:B57"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B16:B33"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="B59:B63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/КопияРейтинг.xlsx
+++ b/КопияРейтинг.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserProfiles\pr12prohorov.OAT\Desktop\git_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D149D-1DFF-4B2F-9133-13ACFAB1E56A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E98D146-EBE0-4626-B7C7-75841659B3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1080" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="1080" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение Ролей" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="151">
   <si>
     <t>ФИО</t>
   </si>
@@ -519,12 +519,18 @@
   <si>
     <t>Менеджер/тех.пис</t>
   </si>
+  <si>
+    <t>Менеджер/тех.пис.</t>
+  </si>
+  <si>
+    <t>Тех.писатель</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,21 +593,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF006100"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006100"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -757,10 +748,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -801,68 +788,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1148,7 +1141,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1149,10 @@
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="6" customWidth="1"/>
-    <col min="4" max="8" width="12.7109375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="6"/>
     <col min="10" max="10" width="9.140625" style="9"/>
     <col min="11" max="11" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -1187,126 +1183,138 @@
       <c r="H2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="K4" s="16" t="s">
+      <c r="G4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="K5" s="16" t="s">
+      <c r="G5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="K6" s="16" t="s">
+      <c r="G6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="K7" s="16" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="K7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="21"/>
     </row>
   </sheetData>
   <sortState ref="B3:G27">
@@ -1323,7 +1331,7 @@
   <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1334,15 +1342,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
@@ -1381,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -1404,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -1427,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -1460,18 +1468,18 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -1602,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9373F6A1-6D29-4CEC-8E2B-884FFFED7687}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1625,56 +1633,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="4" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="B4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="M4" s="42"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="5" t="s">
         <v>102</v>
       </c>
@@ -1701,10 +1709,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1735,8 +1743,8 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
@@ -1765,8 +1773,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1797,8 +1805,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
@@ -1827,8 +1835,8 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1857,10 +1865,10 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1869,8 +1877,12 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1879,16 +1891,20 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1897,82 +1913,130 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1">
         <v>0.5</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="1">
         <v>0.5</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1995,8 +2059,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="2" t="s">
         <v>109</v>
       </c>
@@ -2017,8 +2081,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2039,8 +2103,8 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2061,8 +2125,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2083,8 +2147,8 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2103,8 +2167,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="1" t="s">
         <v>112</v>
       </c>
@@ -2121,7 +2185,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2147,8 +2211,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="31" t="s">
         <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2171,8 +2235,8 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="1" t="s">
         <v>116</v>
       </c>
@@ -2193,8 +2257,8 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2213,8 +2277,8 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="1" t="s">
         <v>119</v>
       </c>
@@ -2231,28 +2295,28 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="3">
         <v>38</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="5">
         <f t="shared" ref="G29:M29" si="0">SUM(G6:G28)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5">
@@ -2262,6 +2326,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B17:B23"/>
@@ -2278,11 +2347,6 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2292,1374 +2356,1345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="8.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15" style="17" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="17" customWidth="1"/>
-    <col min="5" max="11" width="5.7109375" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="8.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15" style="15" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="15" customWidth="1"/>
+    <col min="5" max="11" width="5.7109375" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="38" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="18" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="20">
-        <v>1</v>
-      </c>
-      <c r="I9" s="20">
-        <v>1</v>
-      </c>
-      <c r="J9" s="20">
-        <v>1</v>
-      </c>
-      <c r="K9" s="20"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>1.5</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="20">
-        <v>2</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="20">
-        <v>1</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20">
-        <v>1</v>
-      </c>
-      <c r="I13" s="20">
-        <v>1</v>
-      </c>
-      <c r="J13" s="20">
-        <v>1</v>
-      </c>
-      <c r="K13" s="20"/>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="20" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="20">
-        <v>2</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20">
-        <v>1</v>
-      </c>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
-        <v>1</v>
-      </c>
-      <c r="K14" s="20"/>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="20" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="20">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20">
-        <v>1</v>
-      </c>
-      <c r="I15" s="20">
-        <v>1</v>
-      </c>
-      <c r="J15" s="20">
-        <v>1</v>
-      </c>
-      <c r="K15" s="20"/>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="20">
-        <v>2</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20">
-        <v>2</v>
-      </c>
-      <c r="K16" s="20"/>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18">
+        <v>2</v>
+      </c>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="19" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="20">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20">
-        <v>1</v>
-      </c>
-      <c r="K17" s="20"/>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="20">
-        <v>1</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20">
-        <v>1</v>
-      </c>
-      <c r="K18" s="20"/>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="19" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="20">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20">
-        <v>1</v>
-      </c>
-      <c r="K19" s="20"/>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="20"/>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18">
+        <v>1</v>
+      </c>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="20">
-        <v>2</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="20">
-        <v>2</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="20">
-        <v>1</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="20" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="20">
-        <v>1</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="20">
-        <v>1</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="20">
-        <v>1</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="20">
-        <v>1</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="20">
-        <v>2</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20">
-        <v>2</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18">
+        <v>2</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="20" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="20">
-        <v>1</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="20" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="20">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="20" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="20">
-        <v>1</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="29" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="20">
-        <v>1</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="20" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="20">
-        <v>1</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="20" t="s">
+      <c r="B32" s="46"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="20">
-        <v>1</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="20" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="20">
-        <v>1</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="20">
-        <v>1</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20">
-        <v>1</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18">
+        <v>1</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="19" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="20">
-        <v>1</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="19" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="20">
-        <v>1</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="E36" s="18">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="35"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="19" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="20">
-        <v>1</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="E37" s="18">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="19" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="20">
-        <v>1</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="20">
-        <v>1</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20">
-        <v>1</v>
-      </c>
-      <c r="K39" s="20"/>
+      <c r="E39" s="18">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18">
+        <v>1</v>
+      </c>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="20" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="20">
-        <v>1</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
+      <c r="E40" s="18">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
     </row>
     <row r="41" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="31" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="20">
-        <v>2</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20">
-        <v>2</v>
-      </c>
-      <c r="K41" s="20"/>
+      <c r="E41" s="18">
+        <v>2</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18">
+        <v>2</v>
+      </c>
+      <c r="K41" s="18"/>
     </row>
     <row r="42" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="20" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="20">
-        <v>1</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20">
-        <v>1</v>
-      </c>
-      <c r="K42" s="20"/>
+      <c r="E42" s="18">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18">
+        <v>1</v>
+      </c>
+      <c r="K42" s="18"/>
     </row>
     <row r="43" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="35"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="20" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="20">
-        <v>2</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20">
-        <v>2</v>
-      </c>
-      <c r="K43" s="20"/>
+      <c r="E43" s="18">
+        <v>2</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18">
+        <v>2</v>
+      </c>
+      <c r="K43" s="18"/>
     </row>
     <row r="44" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="20">
-        <v>1</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
+      <c r="E44" s="18">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
     </row>
     <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="35"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="20" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="20">
-        <v>1</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
     </row>
     <row r="46" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="20" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="20">
-        <v>1</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
+      <c r="E46" s="18">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="35"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="20" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="20">
-        <v>1</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="19">
-        <v>1</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
+      <c r="E47" s="18">
+        <v>1</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="17">
+        <v>1</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="20" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>0.5</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="19">
+      <c r="F48" s="18"/>
+      <c r="G48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="17">
         <v>0.5</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
     </row>
     <row r="49" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="35"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="20" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="20">
-        <v>1</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="20">
-        <v>1</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
+      <c r="E49" s="18">
+        <v>1</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="18">
+        <v>1</v>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
     </row>
     <row r="50" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
-      <c r="C50" s="31" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>0.5</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18">
         <v>0.5</v>
       </c>
-      <c r="K50" s="20"/>
+      <c r="K50" s="18"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="35"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="20" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="18">
         <v>0.5</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="35"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="20" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>0.5</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="18"/>
     </row>
     <row r="53" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="35"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="20" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>0.5</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="35"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="20" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="20">
-        <v>2</v>
-      </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
+      <c r="E54" s="18">
+        <v>2</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="17"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
     </row>
     <row r="55" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="20" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="20">
-        <v>2</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
+      <c r="E55" s="18">
+        <v>2</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
     </row>
     <row r="56" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="35"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="20" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="20">
-        <v>1</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="20" t="s">
+      <c r="B57" s="42"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E57" s="20">
-        <v>2</v>
-      </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
+      <c r="E57" s="18">
+        <v>2</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
     </row>
     <row r="58" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="20">
-        <v>1</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20">
-        <v>1</v>
-      </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
+      <c r="E58" s="18">
+        <v>1</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18">
+        <v>1</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
     </row>
     <row r="59" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="20">
-        <v>1</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
+      <c r="E59" s="18">
+        <v>1</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="35"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="20" t="s">
+      <c r="B60" s="41"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="20">
-        <v>1</v>
-      </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
+      <c r="E60" s="18">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
     </row>
     <row r="61" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="35"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="20" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="20">
-        <v>1</v>
-      </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
+      <c r="E61" s="18">
+        <v>1</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
     </row>
     <row r="62" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="31" t="s">
+      <c r="B62" s="41"/>
+      <c r="C62" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="20">
-        <v>1</v>
-      </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
+      <c r="E62" s="18">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
     </row>
     <row r="63" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="35"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="20" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="20">
-        <v>1</v>
-      </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
+      <c r="E63" s="18">
+        <v>1</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="20">
-        <v>1</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="20">
-        <v>1</v>
-      </c>
-      <c r="I64" s="20">
-        <v>1</v>
-      </c>
-      <c r="J64" s="20">
-        <v>1</v>
-      </c>
-      <c r="K64" s="20"/>
+      <c r="E64" s="18">
+        <v>1</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="18">
+        <v>1</v>
+      </c>
+      <c r="I64" s="18">
+        <v>1</v>
+      </c>
+      <c r="J64" s="18">
+        <v>1</v>
+      </c>
+      <c r="K64" s="18"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="35"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="20" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="20">
-        <v>1</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="20">
-        <v>1</v>
-      </c>
-      <c r="I65" s="20">
-        <v>1</v>
-      </c>
-      <c r="J65" s="20">
-        <v>1</v>
-      </c>
-      <c r="K65" s="20"/>
+      <c r="E65" s="18">
+        <v>1</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="18">
+        <v>1</v>
+      </c>
+      <c r="I65" s="18">
+        <v>1</v>
+      </c>
+      <c r="J65" s="18">
+        <v>1</v>
+      </c>
+      <c r="K65" s="18"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="35"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="20" t="s">
+      <c r="B66" s="41"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E66" s="20">
-        <v>1</v>
-      </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="20">
-        <v>1</v>
-      </c>
-      <c r="I66" s="20">
-        <v>1</v>
-      </c>
-      <c r="J66" s="20">
-        <v>1</v>
-      </c>
-      <c r="K66" s="20"/>
+      <c r="E66" s="18">
+        <v>1</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="18">
+        <v>1</v>
+      </c>
+      <c r="I66" s="18">
+        <v>1</v>
+      </c>
+      <c r="J66" s="18">
+        <v>1</v>
+      </c>
+      <c r="K66" s="18"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="36"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="20" t="s">
+      <c r="B67" s="42"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="20">
-        <v>2</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="20">
-        <v>1</v>
-      </c>
-      <c r="I67" s="20">
-        <v>1</v>
-      </c>
-      <c r="J67" s="20">
-        <v>1</v>
-      </c>
-      <c r="K67" s="20"/>
+      <c r="E67" s="18">
+        <v>2</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="18">
+        <v>1</v>
+      </c>
+      <c r="I67" s="18">
+        <v>1</v>
+      </c>
+      <c r="J67" s="18">
+        <v>1</v>
+      </c>
+      <c r="K67" s="18"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="19">
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="17">
         <f>SUM(E7:E67)</f>
         <v>70</v>
       </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17">
         <f>SUM(H7:H67)</f>
-        <v>17.5</v>
-      </c>
-      <c r="I68" s="19">
+        <v>14.5</v>
+      </c>
+      <c r="I68" s="17">
         <f>SUM(I7:I67)</f>
-        <v>12</v>
-      </c>
-      <c r="J68" s="19">
+        <v>9</v>
+      </c>
+      <c r="J68" s="17">
         <f>SUM(J7:J67)</f>
-        <v>20.5</v>
-      </c>
-      <c r="K68" s="19">
+        <v>18.5</v>
+      </c>
+      <c r="K68" s="17">
         <f>SUM(K7:K67)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B34:B57"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B7:B15"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D4:D6"/>
@@ -3676,6 +3711,21 @@
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B34:B57"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B7:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/КопияРейтинг.xlsx
+++ b/КопияРейтинг.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserProfiles\pr12prohorov.OAT\Desktop\git_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E98D146-EBE0-4626-B7C7-75841659B3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A27E2-DEAD-4C90-B973-F981C8821B73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="1080" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,6 +779,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,6 +797,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -806,7 +815,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,39 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1192,22 +1192,22 @@
       <c r="B3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="23" t="s">
         <v>150</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -1219,7 +1219,7 @@
       <c r="B4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="24" t="s">
         <v>143</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -1234,7 +1234,7 @@
       <c r="G4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="23" t="s">
         <v>147</v>
       </c>
       <c r="K4" s="14" t="s">
@@ -1246,7 +1246,7 @@
       <c r="B5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="24" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1261,7 +1261,7 @@
       <c r="G5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="23" t="s">
         <v>98</v>
       </c>
       <c r="K5" s="14" t="s">
@@ -1273,7 +1273,7 @@
       <c r="B6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1288,7 +1288,7 @@
       <c r="G6" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="23" t="s">
         <v>149</v>
       </c>
       <c r="K6" s="14" t="s">
@@ -1342,15 +1342,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
@@ -1471,15 +1471,15 @@
       <c r="B9" s="12"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -1611,7 +1611,7 @@
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1633,56 +1633,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="4" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26" t="s">
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="5" t="s">
         <v>102</v>
       </c>
@@ -1709,10 +1709,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1743,8 +1743,8 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
@@ -1773,8 +1773,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1805,8 +1805,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
@@ -1835,8 +1835,8 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1865,10 +1865,10 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1891,8 +1891,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1913,8 +1913,8 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1943,8 +1943,8 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="1" t="s">
         <v>107</v>
       </c>
@@ -1973,8 +1973,8 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2003,8 +2003,8 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
@@ -2033,10 +2033,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2059,8 +2059,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="2" t="s">
         <v>109</v>
       </c>
@@ -2081,8 +2081,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2103,8 +2103,8 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2125,8 +2125,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2147,8 +2147,8 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2167,8 +2167,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="1" t="s">
         <v>112</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2211,8 +2211,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="s">
         <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2235,8 +2235,8 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="1" t="s">
         <v>116</v>
       </c>
@@ -2257,8 +2257,8 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2277,8 +2277,8 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="1" t="s">
         <v>119</v>
       </c>
@@ -2295,11 +2295,11 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="3">
         <v>38</v>
       </c>
@@ -2326,11 +2326,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B17:B23"/>
@@ -2347,6 +2342,11 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2371,84 +2371,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="45" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -2467,8 +2467,8 @@
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
@@ -2485,8 +2485,8 @@
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="18" t="s">
         <v>19</v>
       </c>
@@ -2503,8 +2503,8 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -2523,8 +2523,8 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="18" t="s">
         <v>22</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
@@ -2561,8 +2561,8 @@
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -2581,8 +2581,8 @@
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="18" t="s">
         <v>27</v>
       </c>
@@ -2599,8 +2599,8 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="18" t="s">
         <v>29</v>
       </c>
@@ -2623,10 +2623,10 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -2647,8 +2647,8 @@
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="17" t="s">
         <v>33</v>
       </c>
@@ -2667,8 +2667,8 @@
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="17" t="s">
         <v>34</v>
       </c>
@@ -2687,8 +2687,8 @@
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -2707,8 +2707,8 @@
       <c r="K19" s="18"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
@@ -2727,8 +2727,8 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -2749,8 +2749,8 @@
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
@@ -2769,8 +2769,8 @@
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="18" t="s">
         <v>39</v>
       </c>
@@ -2789,8 +2789,8 @@
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="18" t="s">
         <v>40</v>
       </c>
@@ -2809,8 +2809,8 @@
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="18" t="s">
         <v>41</v>
       </c>
@@ -2829,8 +2829,8 @@
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -2851,8 +2851,8 @@
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="18" t="s">
         <v>43</v>
       </c>
@@ -2869,8 +2869,8 @@
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="18" t="s">
         <v>44</v>
       </c>
@@ -2887,8 +2887,8 @@
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="18" t="s">
         <v>45</v>
       </c>
@@ -2907,8 +2907,8 @@
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
-      <c r="C30" s="38" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="18" t="s">
@@ -2927,8 +2927,8 @@
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="38"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="18" t="s">
         <v>48</v>
       </c>
@@ -2945,8 +2945,8 @@
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="46"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="18" t="s">
         <v>49</v>
       </c>
@@ -2963,8 +2963,8 @@
       <c r="K32" s="18"/>
     </row>
     <row r="33" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="18" t="s">
         <v>134</v>
       </c>
@@ -2981,10 +2981,10 @@
       <c r="K33" s="18"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="36" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -3005,8 +3005,8 @@
       <c r="K34" s="18"/>
     </row>
     <row r="35" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="17" t="s">
         <v>53</v>
       </c>
@@ -3023,8 +3023,8 @@
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="17" t="s">
         <v>54</v>
       </c>
@@ -3041,8 +3041,8 @@
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="17" t="s">
         <v>55</v>
       </c>
@@ -3059,8 +3059,8 @@
       <c r="K37" s="18"/>
     </row>
     <row r="38" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="38"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="17" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3077,8 @@
       <c r="K38" s="18"/>
     </row>
     <row r="39" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="18" t="s">
         <v>57</v>
       </c>
@@ -3097,8 +3097,8 @@
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="18" t="s">
         <v>58</v>
       </c>
@@ -3115,8 +3115,8 @@
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="41"/>
-      <c r="C41" s="43" t="s">
+      <c r="B41" s="42"/>
+      <c r="C41" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -3137,8 +3137,8 @@
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="41"/>
-      <c r="C42" s="44"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="18" t="s">
         <v>61</v>
       </c>
@@ -3157,8 +3157,8 @@
       <c r="K42" s="18"/>
     </row>
     <row r="43" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="45"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="18" t="s">
         <v>62</v>
       </c>
@@ -3177,8 +3177,8 @@
       <c r="K43" s="18"/>
     </row>
     <row r="44" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -3197,8 +3197,8 @@
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="18" t="s">
         <v>65</v>
       </c>
@@ -3215,8 +3215,8 @@
       <c r="K45" s="18"/>
     </row>
     <row r="46" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
-      <c r="C46" s="38"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="18" t="s">
         <v>66</v>
       </c>
@@ -3233,8 +3233,8 @@
       <c r="K46" s="18"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="18" t="s">
         <v>92</v>
       </c>
@@ -3253,8 +3253,8 @@
       <c r="K47" s="18"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
-      <c r="C48" s="38"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="18" t="s">
         <v>67</v>
       </c>
@@ -3273,8 +3273,8 @@
       <c r="K48" s="18"/>
     </row>
     <row r="49" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
-      <c r="C49" s="38"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="18" t="s">
         <v>68</v>
       </c>
@@ -3293,8 +3293,8 @@
       <c r="K49" s="18"/>
     </row>
     <row r="50" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="42"/>
+      <c r="C50" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D50" s="18" t="s">
@@ -3315,8 +3315,8 @@
       <c r="K50" s="18"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
-      <c r="C51" s="44"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="18" t="s">
         <v>82</v>
       </c>
@@ -3335,8 +3335,8 @@
       <c r="K51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
-      <c r="C52" s="44"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="18" t="s">
         <v>133</v>
       </c>
@@ -3355,8 +3355,8 @@
       <c r="K52" s="18"/>
     </row>
     <row r="53" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
-      <c r="C53" s="44"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="18" t="s">
         <v>83</v>
       </c>
@@ -3373,8 +3373,8 @@
       <c r="K53" s="18"/>
     </row>
     <row r="54" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="18" t="s">
         <v>84</v>
       </c>
@@ -3391,8 +3391,8 @@
       <c r="K54" s="18"/>
     </row>
     <row r="55" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="41"/>
-      <c r="C55" s="44"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="18" t="s">
         <v>85</v>
       </c>
@@ -3409,8 +3409,8 @@
       <c r="K55" s="18"/>
     </row>
     <row r="56" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
-      <c r="C56" s="44"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="18" t="s">
         <v>86</v>
       </c>
@@ -3427,8 +3427,8 @@
       <c r="K56" s="18"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="45"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="18" t="s">
         <v>93</v>
       </c>
@@ -3469,10 +3469,10 @@
       <c r="K58" s="18"/>
     </row>
     <row r="59" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="38" t="s">
         <v>73</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -3491,8 +3491,8 @@
       <c r="K59" s="18"/>
     </row>
     <row r="60" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
-      <c r="C60" s="44"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="18" t="s">
         <v>75</v>
       </c>
@@ -3509,8 +3509,8 @@
       <c r="K60" s="18"/>
     </row>
     <row r="61" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
-      <c r="C61" s="45"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="18" t="s">
         <v>76</v>
       </c>
@@ -3527,8 +3527,8 @@
       <c r="K61" s="18"/>
     </row>
     <row r="62" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="41"/>
-      <c r="C62" s="43" t="s">
+      <c r="B62" s="42"/>
+      <c r="C62" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="18" t="s">
@@ -3547,8 +3547,8 @@
       <c r="K62" s="18"/>
     </row>
     <row r="63" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
-      <c r="C63" s="45"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="18" t="s">
         <v>79</v>
       </c>
@@ -3565,10 +3565,10 @@
       <c r="K63" s="18"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="38" t="s">
         <v>122</v>
       </c>
       <c r="D64" s="18" t="s">
@@ -3593,8 +3593,8 @@
       <c r="K64" s="18"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="44"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="18" t="s">
         <v>124</v>
       </c>
@@ -3617,8 +3617,8 @@
       <c r="K65" s="18"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
-      <c r="C66" s="44"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="18" t="s">
         <v>125</v>
       </c>
@@ -3641,8 +3641,8 @@
       <c r="K66" s="18"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
-      <c r="C67" s="45"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="40"/>
       <c r="D67" s="18" t="s">
         <v>126</v>
       </c>
@@ -3665,11 +3665,11 @@
       <c r="K67" s="18"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="17">
         <f>SUM(E7:E67)</f>
         <v>70</v>
@@ -3695,6 +3695,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B34:B57"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B7:B15"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D4:D6"/>
@@ -3711,21 +3726,6 @@
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B34:B57"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B7:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
